--- a/data/SSI.xlsx
+++ b/data/SSI.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADD851E-5F21-BD41-BCB4-F5A7F90759C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546F5932-5EA9-2A4F-927C-2E6D6BBFACAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" xr2:uid="{296EEB57-C000-EB44-B5D0-AEFA29E8C077}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="centroids" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -375,7 +376,7 @@
   <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160:XFD175"/>
+      <selection activeCell="A155" sqref="A155:C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2132,4 +2133,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700BC4D4-4EC5-254F-B979-05DE17833DDD}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>3.1214505718441896</v>
+      </c>
+      <c r="B1">
+        <v>1.5217770371885444</v>
+      </c>
+      <c r="C1">
+        <v>1.2791454458684139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>4.4790184699999998</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.6308013200000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.08301011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>6.7013127499999996</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.7820692899999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.9433738800000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>7.71247433</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.1480378800000004</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.2257635499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.0047041766811127</v>
+      </c>
+      <c r="B5">
+        <v>8.1321098664937477</v>
+      </c>
+      <c r="C5">
+        <v>8.4323077354713085</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/SSI.xlsx
+++ b/data/SSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546F5932-5EA9-2A4F-927C-2E6D6BBFACAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FD129-207A-EC46-922C-95EBB417201F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" xr2:uid="{296EEB57-C000-EB44-B5D0-AEFA29E8C077}"/>
   </bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9409109-F69F-4442-9E93-B1E8B01BCDE9}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:C159"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2075,60 +2075,20 @@
         <v>3.2481165996934291</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>3.1214505718441896</v>
-      </c>
-      <c r="B155">
-        <v>1.5217770371885444</v>
-      </c>
-      <c r="C155">
-        <v>1.2791454458684139</v>
-      </c>
-    </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>4.4790184699999998</v>
-      </c>
-      <c r="B156" s="1">
-        <v>3.6308013200000002</v>
-      </c>
-      <c r="C156" s="1">
-        <v>3.08301011</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>6.7013127499999996</v>
-      </c>
-      <c r="B157" s="1">
-        <v>4.7820692899999999</v>
-      </c>
-      <c r="C157" s="1">
-        <v>3.9433738800000002</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>7.71247433</v>
-      </c>
-      <c r="B158" s="1">
-        <v>7.1480378800000004</v>
-      </c>
-      <c r="C158" s="1">
-        <v>6.2257635499999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>9.0047041766811127</v>
-      </c>
-      <c r="B159">
-        <v>8.1321098664937477</v>
-      </c>
-      <c r="C159">
-        <v>8.4323077354713085</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
